--- a/appData.xlsx
+++ b/appData.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwahlstedt/Desktop/pythonappStanford/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwahlstedt/Desktop/Geographic_App_Stanford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C231C3F-60F2-CC46-862C-BD5E7CAFC646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2480F03F-64DE-F744-BEDC-ABD4F2C7F493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{A0290707-4858-A247-9A77-7E11289D872F}"/>
+    <workbookView xWindow="4600" yWindow="1520" windowWidth="26840" windowHeight="15940" xr2:uid="{A0290707-4858-A247-9A77-7E11289D872F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Pop2018</t>
   </si>
@@ -69,21 +72,6 @@
     <t>GeoName</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>AK</t>
   </si>
   <si>
@@ -244,6 +232,24 @@
   </si>
   <si>
     <t>Number of Universites Per State (No CA)</t>
+  </si>
+  <si>
+    <t>GDP 2015</t>
+  </si>
+  <si>
+    <t>GDP 2016</t>
+  </si>
+  <si>
+    <t>GDP 2017</t>
+  </si>
+  <si>
+    <t>GDP 2018</t>
+  </si>
+  <si>
+    <t>GDP 2019</t>
+  </si>
+  <si>
+    <t>Log Pop 2010</t>
   </si>
 </sst>
 </file>
@@ -323,20 +329,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +663,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -662,67 +671,71 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="17.83203125" customWidth="1"/>
     <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" customWidth="1"/>
+    <col min="14" max="14" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="4"/>
+      <c r="J1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>39020</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>39211</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>39599</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>40599</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>41389</v>
       </c>
       <c r="G2" s="2">
@@ -734,39 +747,36 @@
       <c r="I2" s="2">
         <v>4785450</v>
       </c>
-      <c r="J2" s="3" cm="1">
+      <c r="J2" cm="1">
         <f t="array" ref="J2:J51">LOG(I2:I51)</f>
         <v>6.6799227829337227</v>
       </c>
-      <c r="K2" s="3" cm="1">
+      <c r="K2" cm="1">
         <f t="array" ref="K2:K51">LOG(H2:H51)</f>
         <v>6.6891196466957421</v>
       </c>
-      <c r="L2" s="2">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2">
-        <v>35</v>
-      </c>
-      <c r="N2" s="3"/>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2:L51">LOG(I2:I51)</f>
+        <v>6.6799227829337227</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>72948</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>71091</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>71282</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>72221</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>74422</v>
       </c>
       <c r="G3" s="2">
@@ -778,37 +788,39 @@
       <c r="I3" s="2">
         <v>713906</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>5.8536410319879284</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>5.8677255129352757</v>
       </c>
-      <c r="L3" s="2">
-        <v>129</v>
+      <c r="L3">
+        <v>5.8536410319879284</v>
       </c>
       <c r="M3" s="2">
-        <v>129</v>
-      </c>
-      <c r="N3" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>41031</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>41669</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>42505</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>43546</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>44161</v>
       </c>
       <c r="G4" s="2">
@@ -820,37 +832,39 @@
       <c r="I4" s="2">
         <v>6407770</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>6.8067069148234509</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>6.8556190864147224</v>
       </c>
-      <c r="L4" s="2">
-        <v>108</v>
+      <c r="L4">
+        <v>6.8067069148234509</v>
       </c>
       <c r="M4" s="2">
-        <v>108</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="N4" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>38233</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>38309</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>38432</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>38971</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>39580</v>
       </c>
       <c r="G5" s="2">
@@ -862,37 +876,39 @@
       <c r="I5" s="2">
         <v>2921980</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>6.465677239004382</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>6.4791173105727964</v>
       </c>
-      <c r="L5" s="2">
-        <v>155</v>
+      <c r="L5">
+        <v>6.465677239004382</v>
       </c>
       <c r="M5" s="2">
-        <v>155</v>
-      </c>
-      <c r="N5" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="N5" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>62403</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>63853</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>66331</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>68970</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>70662</v>
       </c>
       <c r="G6" s="2">
@@ -904,35 +920,39 @@
       <c r="I6" s="2">
         <v>37320900</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>7.5719521082877739</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>7.5972233473121555</v>
       </c>
-      <c r="L6" s="2">
-        <v>1246</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
+      <c r="L6">
+        <v>7.5719521082877739</v>
+      </c>
+      <c r="M6" s="2">
+        <v>155</v>
+      </c>
+      <c r="N6" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>56724</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>57184</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>58728</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>59930</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>61311</v>
       </c>
       <c r="G7" s="2">
@@ -944,37 +964,37 @@
       <c r="I7" s="2">
         <v>5048280</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>6.7031434348023549</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>6.755536431304189</v>
       </c>
-      <c r="L7" s="2">
-        <v>171</v>
+      <c r="L7">
+        <v>6.7031434348023549</v>
       </c>
       <c r="M7" s="2">
-        <v>171</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>1246</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>67717</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>67855</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>68195</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>68577</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>69789</v>
       </c>
       <c r="G8" s="2">
@@ -986,37 +1006,39 @@
       <c r="I8" s="2">
         <v>3579120</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>6.5537762595702675</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>6.5529916875850809</v>
       </c>
-      <c r="L8" s="2">
-        <v>114</v>
+      <c r="L8">
+        <v>6.5537762595702675</v>
       </c>
       <c r="M8" s="2">
-        <v>114</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="N8" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>69988</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>66506</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>65571</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>65009</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>64985</v>
       </c>
       <c r="G9" s="2">
@@ -1028,37 +1050,39 @@
       <c r="I9" s="2">
         <v>899595</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>5.9540470329369564</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>5.9855032660073961</v>
       </c>
-      <c r="L9" s="2">
-        <v>23</v>
+      <c r="L9">
+        <v>5.9540470329369564</v>
       </c>
       <c r="M9" s="2">
-        <v>23</v>
-      </c>
-      <c r="N9" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="N9" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>41522</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>42047</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>42746</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>43535</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>44267</v>
       </c>
       <c r="G10" s="2">
@@ -1070,37 +1094,39 @@
       <c r="I10" s="2">
         <v>18845800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>7.2752145778806696</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>7.3283653306155996</v>
       </c>
-      <c r="L10" s="2">
-        <v>439</v>
+      <c r="L10">
+        <v>7.2752145778806696</v>
       </c>
       <c r="M10" s="2">
-        <v>439</v>
-      </c>
-      <c r="N10" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="N10" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>47313</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>48367</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>49623</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>50327</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>50816</v>
       </c>
       <c r="G11" s="2">
@@ -1112,37 +1138,39 @@
       <c r="I11" s="2">
         <v>9711810</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>6.9873001773598151</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>7.0219950979544636</v>
       </c>
-      <c r="L11" s="2">
-        <v>210</v>
+      <c r="L11">
+        <v>6.9873001773598151</v>
       </c>
       <c r="M11" s="2">
-        <v>210</v>
-      </c>
-      <c r="N11" s="3"/>
+        <v>439</v>
+      </c>
+      <c r="N11" s="2">
+        <v>439</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>54277</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>55273</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>56667</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>58181</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>58981</v>
       </c>
       <c r="G12" s="2">
@@ -1154,37 +1182,39 @@
       <c r="I12" s="2">
         <v>1363960</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>6.1348016342251528</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>6.152438180712875</v>
       </c>
-      <c r="L12" s="2">
-        <v>43</v>
+      <c r="L12">
+        <v>6.1348016342251528</v>
       </c>
       <c r="M12" s="2">
-        <v>43</v>
-      </c>
-      <c r="N12" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="N12" s="2">
+        <v>210</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>38216</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>38954</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>39482</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>40274</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>40566</v>
       </c>
       <c r="G13" s="2">
@@ -1196,37 +1226,39 @@
       <c r="I13" s="2">
         <v>1570770</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>6.1961125981249436</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>6.2440815824063067</v>
       </c>
-      <c r="L13" s="2">
-        <v>107</v>
+      <c r="L13">
+        <v>6.1961125981249436</v>
       </c>
       <c r="M13" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="N13" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>57899</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>58279</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>58976</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>60504</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>61713</v>
       </c>
       <c r="G14" s="2">
@@ -1238,37 +1270,39 @@
       <c r="I14" s="2">
         <v>12840800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>7.1085920817361394</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>7.1052069243342926</v>
       </c>
-      <c r="L14" s="2">
-        <v>33</v>
+      <c r="L14">
+        <v>7.1085920817361394</v>
       </c>
       <c r="M14" s="2">
-        <v>33</v>
-      </c>
-      <c r="N14" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="N14" s="2">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>47152</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>47727</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>48474</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>49182</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>49321</v>
       </c>
       <c r="G15" s="2">
@@ -1280,37 +1314,39 @@
       <c r="I15" s="2">
         <v>6490440</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>6.8122741394960116</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>6.8255481445131458</v>
       </c>
-      <c r="L15" s="2">
-        <v>391</v>
+      <c r="L15">
+        <v>6.8122741394960116</v>
       </c>
       <c r="M15" s="2">
-        <v>391</v>
-      </c>
-      <c r="N15" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="N15" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>54270</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>53931</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>53615</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>54650</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>55051</v>
       </c>
       <c r="G16" s="2">
@@ -1322,37 +1358,39 @@
       <c r="I16" s="2">
         <v>3050770</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>6.4844094670668415</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>6.4991562593912917</v>
       </c>
-      <c r="L16" s="2">
-        <v>175</v>
+      <c r="L16">
+        <v>6.4844094670668415</v>
       </c>
       <c r="M16" s="2">
-        <v>175</v>
-      </c>
-      <c r="N16" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="N16" s="2">
+        <v>391</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>50248</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>51507</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>52073</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>53096</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>53528</v>
       </c>
       <c r="G17" s="2">
@@ -1364,37 +1402,39 @@
       <c r="I17" s="2">
         <v>2858210</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>6.4560941343537275</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>6.4641167944440436</v>
       </c>
-      <c r="L17" s="2">
-        <v>99</v>
+      <c r="L17">
+        <v>6.4560941343537275</v>
       </c>
       <c r="M17" s="2">
-        <v>99</v>
-      </c>
-      <c r="N17" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="N17" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>40968</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>41147</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>41449</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>41966</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>42386</v>
       </c>
       <c r="G18" s="2">
@@ -1406,37 +1446,39 @@
       <c r="I18" s="2">
         <v>4348200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>6.6383095117019222</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>6.6501520431403343</v>
       </c>
-      <c r="L18" s="2">
-        <v>165</v>
+      <c r="L18">
+        <v>6.6383095117019222</v>
       </c>
       <c r="M18" s="2">
-        <v>165</v>
-      </c>
-      <c r="N18" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="N18" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>49834</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>48791</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>49539</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>50942</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>51729</v>
       </c>
       <c r="G19" s="2">
@@ -1448,37 +1490,39 @@
       <c r="I19" s="2">
         <v>4544530</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>6.6574889746952364</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>6.6683840527611853</v>
       </c>
-      <c r="L19" s="2">
-        <v>173</v>
+      <c r="L19">
+        <v>6.6574889746952364</v>
       </c>
       <c r="M19" s="2">
-        <v>173</v>
-      </c>
-      <c r="N19" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="N19" s="2">
+        <v>165</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3">
+        <v>24</v>
+      </c>
+      <c r="B20">
         <v>40489</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>41291</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>42102</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>42904</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>43541</v>
       </c>
       <c r="G20" s="2">
@@ -1490,37 +1534,39 @@
       <c r="I20" s="2">
         <v>1327630</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>6.1230770574509776</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <v>6.1265859279543378</v>
       </c>
-      <c r="L20" s="2">
-        <v>261</v>
+      <c r="L20">
+        <v>6.1230770574509776</v>
       </c>
       <c r="M20" s="2">
-        <v>261</v>
-      </c>
-      <c r="N20" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="N20" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>57677</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>59437</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>59767</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>61112</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>61926</v>
       </c>
       <c r="G21" s="2">
@@ -1532,37 +1578,39 @@
       <c r="I21" s="2">
         <v>5788640</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21">
         <v>6.7625765412968049</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
         <v>6.7812324709202718</v>
       </c>
-      <c r="L21" s="2">
-        <v>148</v>
+      <c r="L21">
+        <v>6.7625765412968049</v>
       </c>
       <c r="M21" s="2">
-        <v>148</v>
-      </c>
-      <c r="N21" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="N21" s="2">
+        <v>261</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>69343</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>70192</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>71553</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>73529</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>75258</v>
       </c>
       <c r="G22" s="2">
@@ -1574,37 +1622,39 @@
       <c r="I22" s="2">
         <v>6566430</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>6.8173293189221926</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <v>6.838984393301514</v>
       </c>
-      <c r="L22" s="2">
-        <v>60</v>
+      <c r="L22">
+        <v>6.8173293189221926</v>
       </c>
       <c r="M22" s="2">
-        <v>60</v>
-      </c>
-      <c r="N22" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="N22" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>44552</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>45452</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>46037</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>47128</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>47448</v>
       </c>
       <c r="G23" s="2">
@@ -1616,37 +1666,39 @@
       <c r="I23" s="2">
         <v>9877540</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23">
         <v>6.9946487970721982</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23">
         <v>6.9998227716943502</v>
       </c>
-      <c r="L23" s="2">
-        <v>302</v>
+      <c r="L23">
+        <v>6.9946487970721982</v>
       </c>
       <c r="M23" s="2">
-        <v>302</v>
-      </c>
-      <c r="N23" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="N23" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>57111</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>57785</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>58446</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>59562</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>60066</v>
       </c>
       <c r="G24" s="2">
@@ -1658,37 +1710,39 @@
       <c r="I24" s="2">
         <v>5310840</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>6.7251632175999285</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>6.7490542005788594</v>
       </c>
-      <c r="L24" s="2">
-        <v>169</v>
+      <c r="L24">
+        <v>6.7251632175999285</v>
       </c>
       <c r="M24" s="2">
-        <v>169</v>
-      </c>
-      <c r="N24" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="N24" s="2">
+        <v>302</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3">
+        <v>28</v>
+      </c>
+      <c r="B25">
         <v>33543</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>33688</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>33969</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>34497</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>35015</v>
       </c>
       <c r="G25" s="2">
@@ -1700,37 +1754,39 @@
       <c r="I25" s="2">
         <v>2970540</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>6.4728354047727343</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25">
         <v>6.475166881637592</v>
       </c>
-      <c r="L25" s="2">
-        <v>242</v>
+      <c r="L25">
+        <v>6.4728354047727343</v>
       </c>
       <c r="M25" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="N25" s="2">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3">
+        <v>27</v>
+      </c>
+      <c r="B26">
         <v>45572</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>45259</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>45555</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>46544</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>47407</v>
       </c>
       <c r="G26" s="2">
@@ -1742,37 +1798,39 @@
       <c r="I26" s="2">
         <v>5995980</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>6.7778601755598098</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
         <v>6.7872088934400656</v>
       </c>
-      <c r="L26" s="2">
-        <v>69</v>
+      <c r="L26">
+        <v>6.7778601755598098</v>
       </c>
       <c r="M26" s="2">
-        <v>69</v>
-      </c>
-      <c r="N26" s="3"/>
+        <v>242</v>
+      </c>
+      <c r="N26" s="2">
+        <v>242</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>43544</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>42528</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>42784</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>43576</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>44145</v>
       </c>
       <c r="G27" s="2">
@@ -1784,37 +1842,39 @@
       <c r="I27" s="2">
         <v>990722</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27">
         <v>5.9959518070548476</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27">
         <v>6.0262471814777738</v>
       </c>
-      <c r="L27" s="2">
-        <v>54</v>
+      <c r="L27">
+        <v>5.9959518070548476</v>
       </c>
       <c r="M27" s="2">
-        <v>54</v>
-      </c>
-      <c r="N27" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="N27" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="3">
+        <v>32</v>
+      </c>
+      <c r="B28">
         <v>58334</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>58150</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>59036</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>59290</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>59386</v>
       </c>
       <c r="G28" s="2">
@@ -1826,37 +1886,39 @@
       <c r="I28" s="2">
         <v>1829540</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28">
         <v>6.2623419090887493</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28">
         <v>6.2853930111091705</v>
       </c>
-      <c r="L28" s="2">
-        <v>188</v>
+      <c r="L28">
+        <v>6.2623419090887493</v>
       </c>
       <c r="M28" s="2">
-        <v>188</v>
-      </c>
-      <c r="N28" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="N28" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3">
+        <v>36</v>
+      </c>
+      <c r="B29">
         <v>47238</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>47744</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>48397</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>49476</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>50043</v>
       </c>
       <c r="G29" s="2">
@@ -1868,37 +1930,39 @@
       <c r="I29" s="2">
         <v>2702460</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29">
         <v>6.4317592745373409</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29">
         <v>6.4820713984556173</v>
       </c>
-      <c r="L29" s="2">
-        <v>30</v>
+      <c r="L29">
+        <v>6.4317592745373409</v>
       </c>
       <c r="M29" s="2">
-        <v>30</v>
-      </c>
-      <c r="N29" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="N29" s="2">
+        <v>188</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>53512</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>54247</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>54952</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>56029</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>57272</v>
       </c>
       <c r="G30" s="2">
@@ -1910,37 +1974,39 @@
       <c r="I30" s="2">
         <v>1316780</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30">
         <v>6.1195132216078658</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30">
         <v>6.1324069915842294</v>
       </c>
-      <c r="L30" s="2">
-        <v>68</v>
+      <c r="L30">
+        <v>6.1195132216078658</v>
       </c>
       <c r="M30" s="2">
-        <v>68</v>
-      </c>
-      <c r="N30" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="N30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
+        <v>34</v>
+      </c>
+      <c r="B31">
         <v>60363</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>60867</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>61170</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>62543</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>63492</v>
       </c>
       <c r="G31" s="2">
@@ -1952,37 +2018,39 @@
       <c r="I31" s="2">
         <v>8799620</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31">
         <v>6.9444639181198946</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31">
         <v>6.9498055593430736</v>
       </c>
-      <c r="L31" s="2">
-        <v>43</v>
+      <c r="L31">
+        <v>6.9444639181198946</v>
       </c>
       <c r="M31" s="2">
-        <v>43</v>
-      </c>
-      <c r="N31" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="N31" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="3">
+        <v>35</v>
+      </c>
+      <c r="B32">
         <v>43652</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>43635</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>43668</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>44728</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>46304</v>
       </c>
       <c r="G32" s="2">
@@ -1994,37 +2062,39 @@
       <c r="I32" s="2">
         <v>2064590</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>6.3148338194710387</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
         <v>6.3212731573571643</v>
       </c>
-      <c r="L32" s="2">
-        <v>207</v>
+      <c r="L32">
+        <v>6.3148338194710387</v>
       </c>
       <c r="M32" s="2">
-        <v>207</v>
-      </c>
-      <c r="N32" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="N32" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="3">
+        <v>37</v>
+      </c>
+      <c r="B33">
         <v>69814</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>70781</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>72434</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>73508</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>75131</v>
       </c>
       <c r="G33" s="2">
@@ -2036,37 +2106,39 @@
       <c r="I33" s="2">
         <v>19400100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
         <v>7.2878039685558065</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33">
         <v>7.290973453654888</v>
       </c>
-      <c r="L33" s="2">
-        <v>61</v>
+      <c r="L33">
+        <v>7.2878039685558065</v>
       </c>
       <c r="M33" s="2">
-        <v>61</v>
-      </c>
-      <c r="N33" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="N33" s="2">
+        <v>207</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34">
         <v>46800</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>46809</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>47282</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>47905</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>48496</v>
       </c>
       <c r="G34" s="2">
@@ -2078,37 +2150,39 @@
       <c r="I34" s="2">
         <v>9574290</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>6.9811065778871377</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34">
         <v>7.0163479497626575</v>
       </c>
-      <c r="L34" s="2">
-        <v>77</v>
+      <c r="L34">
+        <v>6.9811065778871377</v>
       </c>
       <c r="M34" s="2">
-        <v>77</v>
-      </c>
-      <c r="N34" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="N34" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35">
         <v>72807</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>67648</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>67574</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>69746</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>70991</v>
       </c>
       <c r="G35" s="2">
@@ -2120,37 +2194,39 @@
       <c r="I35" s="2">
         <v>674710</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>5.8291171469607415</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35">
         <v>5.8808575909402476</v>
       </c>
-      <c r="L35" s="2">
-        <v>632</v>
+      <c r="L35">
+        <v>5.8291171469607415</v>
       </c>
       <c r="M35" s="2">
-        <v>632</v>
-      </c>
-      <c r="N35" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="N35" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="3">
+        <v>38</v>
+      </c>
+      <c r="B36">
         <v>49960</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>50290</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>50972</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>51848</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>52664</v>
       </c>
       <c r="G36" s="2">
@@ -2162,37 +2238,39 @@
       <c r="I36" s="2">
         <v>11539300</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>7.0621794643346174</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36">
         <v>7.0677922200261225</v>
       </c>
-      <c r="L36" s="2">
-        <v>386</v>
+      <c r="L36">
+        <v>7.0621794643346174</v>
       </c>
       <c r="M36" s="2">
-        <v>386</v>
-      </c>
-      <c r="N36" s="3"/>
+        <v>632</v>
+      </c>
+      <c r="N36" s="2">
+        <v>632</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="3">
+        <v>39</v>
+      </c>
+      <c r="B37">
         <v>50109</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>48419</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>48723</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>49876</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>50876</v>
       </c>
       <c r="G37" s="2">
@@ -2204,37 +2282,39 @@
       <c r="I37" s="2">
         <v>3759630</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>6.5751451063997193</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37">
         <v>6.5958355884366773</v>
       </c>
-      <c r="L37" s="2">
-        <v>158</v>
+      <c r="L37">
+        <v>6.5751451063997193</v>
       </c>
       <c r="M37" s="2">
-        <v>158</v>
-      </c>
-      <c r="N37" s="3"/>
+        <v>386</v>
+      </c>
+      <c r="N37" s="2">
+        <v>386</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="3">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>47811</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>49132</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>50349</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>51786</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>52726</v>
       </c>
       <c r="G38" s="2">
@@ -2246,37 +2326,39 @@
       <c r="I38" s="2">
         <v>3837530</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
         <v>6.584051783607987</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38">
         <v>6.6222876083982909</v>
       </c>
-      <c r="L38" s="2">
-        <v>125</v>
+      <c r="L38">
+        <v>6.584051783607987</v>
       </c>
       <c r="M38" s="2">
-        <v>125</v>
-      </c>
-      <c r="N38" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="N38" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="3">
+        <v>41</v>
+      </c>
+      <c r="B39">
         <v>53285</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>53969</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>54246</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>55607</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>56868</v>
       </c>
       <c r="G39" s="2">
@@ -2288,37 +2370,39 @@
       <c r="I39" s="2">
         <v>12711200</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>7.1041865520314103</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39">
         <v>7.1074508005815176</v>
       </c>
-      <c r="L39" s="2">
-        <v>544</v>
+      <c r="L39">
+        <v>7.1041865520314103</v>
       </c>
       <c r="M39" s="2">
-        <v>544</v>
-      </c>
-      <c r="N39" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="N39" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="3">
+        <v>42</v>
+      </c>
+      <c r="B40">
         <v>50278</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>50239</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>50195</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>50671</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>51963</v>
       </c>
       <c r="G40" s="2">
@@ -2330,37 +2414,39 @@
       <c r="I40" s="2">
         <v>1053940</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>6.0228158875267921</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40">
         <v>6.0242064472900871</v>
       </c>
-      <c r="L40" s="2">
-        <v>37</v>
+      <c r="L40">
+        <v>6.0228158875267921</v>
       </c>
       <c r="M40" s="2">
-        <v>37</v>
-      </c>
-      <c r="N40" s="3"/>
+        <v>544</v>
+      </c>
+      <c r="N40" s="2">
+        <v>544</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="3">
+        <v>43</v>
+      </c>
+      <c r="B41">
         <v>38819</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>39423</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>40204</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>40755</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>41457</v>
       </c>
       <c r="G41" s="2">
@@ -2372,37 +2458,39 @@
       <c r="I41" s="2">
         <v>4635660</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <v>6.666111575363443</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41">
         <v>6.7062166468309927</v>
       </c>
-      <c r="L41" s="2">
-        <v>97</v>
+      <c r="L41">
+        <v>6.666111575363443</v>
       </c>
       <c r="M41" s="2">
-        <v>97</v>
-      </c>
-      <c r="N41" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="N41" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="3">
+        <v>44</v>
+      </c>
+      <c r="B42">
         <v>53212</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>52938</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>52263</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>52908</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>52913</v>
       </c>
       <c r="G42" s="2">
@@ -2414,37 +2502,39 @@
       <c r="I42" s="2">
         <v>816165</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>5.9117779667754249</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42">
         <v>5.9455842831015921</v>
       </c>
-      <c r="L42" s="2">
-        <v>33</v>
+      <c r="L42">
+        <v>5.9117779667754249</v>
       </c>
       <c r="M42" s="2">
-        <v>33</v>
-      </c>
-      <c r="N42" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="N42" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="3">
+        <v>45</v>
+      </c>
+      <c r="B43">
         <v>45756</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>46348</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>46780</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>47799</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>48440</v>
       </c>
       <c r="G43" s="2">
@@ -2456,37 +2546,39 @@
       <c r="I43" s="2">
         <v>6355300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43">
         <v>6.803136056112594</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43">
         <v>6.830589310183167</v>
       </c>
-      <c r="L43" s="2">
-        <v>191</v>
+      <c r="L43">
+        <v>6.803136056112594</v>
       </c>
       <c r="M43" s="2">
-        <v>191</v>
-      </c>
-      <c r="N43" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="N43" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="3">
+        <v>46</v>
+      </c>
+      <c r="B44">
         <v>58113</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>57327</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>58182</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>59827</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>61682</v>
       </c>
       <c r="G44" s="2">
@@ -2498,37 +2590,39 @@
       <c r="I44" s="2">
         <v>25242700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
         <v>7.402135805896485</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44">
         <v>7.4579091338613184</v>
       </c>
-      <c r="L44" s="2">
-        <v>506</v>
+      <c r="L44">
+        <v>7.402135805896485</v>
       </c>
       <c r="M44" s="2">
-        <v>506</v>
-      </c>
-      <c r="N44" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="N44" s="2">
+        <v>191</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3">
+        <v>47</v>
+      </c>
+      <c r="B45">
         <v>47522</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>48462</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>49380</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
         <v>50356</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>51407</v>
       </c>
       <c r="G45" s="2">
@@ -2540,37 +2634,39 @@
       <c r="I45" s="2">
         <v>2775330</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
         <v>6.4433146302183859</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45">
         <v>6.4998382347706922</v>
       </c>
-      <c r="L45" s="2">
-        <v>60</v>
+      <c r="L45">
+        <v>6.4433146302183859</v>
       </c>
       <c r="M45" s="2">
-        <v>60</v>
-      </c>
-      <c r="N45" s="3"/>
+        <v>506</v>
+      </c>
+      <c r="N45" s="2">
+        <v>506</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="3">
+        <v>49</v>
+      </c>
+      <c r="B46">
         <v>46234</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>47082</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>47100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <v>47649</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>48855</v>
       </c>
       <c r="G46" s="2">
@@ -2582,37 +2678,39 @@
       <c r="I46" s="2">
         <v>625880</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46">
         <v>5.796491073891664</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46">
         <v>5.796781718271915</v>
       </c>
-      <c r="L46" s="2">
-        <v>222</v>
+      <c r="L46">
+        <v>5.796491073891664</v>
       </c>
       <c r="M46" s="2">
-        <v>222</v>
-      </c>
-      <c r="N46" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="N46" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="3">
+        <v>48</v>
+      </c>
+      <c r="B47">
         <v>54408</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>54301</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>54917</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <v>56110</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>56938</v>
       </c>
       <c r="G47" s="2">
@@ -2624,37 +2722,39 @@
       <c r="I47" s="2">
         <v>8023680</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>6.9043735998471751</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47">
         <v>6.930321320071525</v>
       </c>
-      <c r="L47" s="2">
-        <v>32</v>
+      <c r="L47">
+        <v>6.9043735998471751</v>
       </c>
       <c r="M47" s="2">
-        <v>32</v>
-      </c>
-      <c r="N47" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="N47" s="2">
+        <v>222</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="3">
+        <v>50</v>
+      </c>
+      <c r="B48">
         <v>62024</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>63025</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>65169</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>68007</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>69761</v>
       </c>
       <c r="G48" s="2">
@@ -2666,37 +2766,39 @@
       <c r="I48" s="2">
         <v>6742900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48">
         <v>6.8288467189573421</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48">
         <v>6.8771172611248552</v>
       </c>
-      <c r="L48" s="2">
-        <v>164</v>
+      <c r="L48">
+        <v>6.8288467189573421</v>
       </c>
       <c r="M48" s="2">
-        <v>164</v>
-      </c>
-      <c r="N48" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="N48" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="3">
+        <v>52</v>
+      </c>
+      <c r="B49">
         <v>37871</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>37630</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>38472</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>39617</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>40265</v>
       </c>
       <c r="G49" s="2">
@@ -2708,37 +2810,39 @@
       <c r="I49" s="2">
         <v>1854210</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49">
         <v>6.2681589189543452</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49">
         <v>6.2566768636203562</v>
       </c>
-      <c r="L49" s="2">
-        <v>132</v>
+      <c r="L49">
+        <v>6.2681589189543452</v>
       </c>
       <c r="M49" s="2">
-        <v>132</v>
-      </c>
-      <c r="N49" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="N49" s="2">
+        <v>164</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="3">
+        <v>51</v>
+      </c>
+      <c r="B50">
         <v>49847</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>50367</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>50889</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
         <v>51938</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>52534</v>
       </c>
       <c r="G50" s="2">
@@ -2750,37 +2854,39 @@
       <c r="I50" s="2">
         <v>5690480</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50">
         <v>6.755148901291216</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50">
         <v>6.7644429060836364</v>
       </c>
-      <c r="L50" s="2">
-        <v>99</v>
+      <c r="L50">
+        <v>6.755148901291216</v>
       </c>
       <c r="M50" s="2">
-        <v>99</v>
-      </c>
-      <c r="N50" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="N50" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="3">
+        <v>53</v>
+      </c>
+      <c r="B51">
         <v>67831</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>65135</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>65633</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51">
         <v>65859</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51">
         <v>67915</v>
       </c>
       <c r="G51" s="2">
@@ -2792,19 +2898,29 @@
       <c r="I51" s="2">
         <v>564483</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51">
         <v>5.7516508672222537</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51">
         <v>5.7617301819455484</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51">
+        <v>5.7516508672222537</v>
+      </c>
+      <c r="M51" s="2">
+        <v>99</v>
+      </c>
+      <c r="N51" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="M52" s="2">
         <v>17</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N52" s="2">
         <v>17</v>
       </c>
-      <c r="N51" s="3"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1"/>
